--- a/biology/Médecine/Fibuline-3/Fibuline-3.xlsx
+++ b/biology/Médecine/Fibuline-3/Fibuline-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fibuline-3 est une glycoprotéine extracellulaire de la classe des fibulines.
 </t>
@@ -511,9 +523,11 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son gène, appelé EFEMP1 (epidermal growth factor–containing fibulin-like extracellular matrix protein 1), est situé sur le chromosome 2 humain. La protéine comprend 493 acides aminés pour un poids de 55 KDa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son gène, appelé EFEMP1 (epidermal growth factor–containing fibulin-like extracellular matrix protein 1), est situé sur le chromosome 2 humain. La protéine comprend 493 acides aminés pour un poids de 55 KDa.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gène est exprimé dans le mésenchyme et participe à la construction des os et des cartilages[1].
-La molécule a des propriétés anti-angiogenèse dans certaines tumeurs[2]. Ces dernières peuvent inhiber la fibuline-3 en la méthylant. C'est le cas en particulier du cancer du poumon[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène est exprimé dans le mésenchyme et participe à la construction des os et des cartilages.
+La molécule a des propriétés anti-angiogenèse dans certaines tumeurs. Ces dernières peuvent inhiber la fibuline-3 en la méthylant. C'est le cas en particulier du cancer du poumon.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'élévation de son taux dans le sérum et dans le liquide pleural serait spécifique de la présence d'un mésothéliome malin[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élévation de son taux dans le sérum et dans le liquide pleural serait spécifique de la présence d'un mésothéliome malin.
 </t>
         </is>
       </c>
